--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,15 +41,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萍</t>
+    <t>陈建文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡永锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔繁楷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林旭诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试主题管理用例规约包括文字描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩管理用例规约包括文字描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目管理用例规约包括文字描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心管理用例规约包括文字描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入考试模块用例规约包括文字描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心管理界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入考试模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目管理后台界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和首页界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试主题后台管理界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6第二周 周三上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6第二周 周三下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成基本布局工作的30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：今天早上做了用例规约，在下午做界面设计时，发现与之前的用户规约有点冲突，但是经过我们小组的讨论 。修改了用户规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和首页界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿力江·买买提江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +145,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.1 第一周 周一</t>
+    <t>孔繁楷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人中心管理用例规约包括文字描写和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.11第3周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改题目管理用例规约包括文字描写和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成绩管理用例规约包括文字描写和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进入考试模块用例规约包括文字描写和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改登陆与注册模块用例规约包括文字描写和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿力江·买买提江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试主题管理用例规约包括文字描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13第3周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面根据作品展示会，进行修改与改善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改错题本界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成绩展示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进行答题的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改首页界面并整合各成员界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人中心界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息展示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：经过作品展示会，清楚了解到自己这个项目的不足，进行了小组讨论与修改；总结出，主要问题在于项目的背景与功能需求模糊，这个方面还要继续加强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18第4周 周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,11 +236,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡永锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯明东</t>
+    <t>林旭诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成(还有查看错题本模块的没有修改)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习后台技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找数据库设计的工具并设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成(确定数据库表，还没设计字段)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时在做其他项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,27 +268,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林旭诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试主题管理用例规约包括文字描写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.6第二周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩管理用例规约包括文字描写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目管理用例规约包括文字描写</t>
+    <t>修改整个前端系统的用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个后台系统的用例规约</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,11 +292,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人中心管理用例规约包括文字描写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入考试模块用例规约包括文字描写</t>
+    <t>学习前端技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于上次修改了界面，这次一位在原有的基础上再修改用例规约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习前端技术(weex框架)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习前端技术(weex框架)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计数据库表(主题表，题目)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习javascript中的正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改查看错题本模块的用例规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19第4周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于现在的用例规约基本可以完成，所以写文档这方面的工作安排一个同学，其他的同学先熟悉下开发中可能遇到的技术难点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +381,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +412,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -198,14 +421,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -545,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -560,20 +811,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -589,83 +840,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -679,127 +930,502 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,30 @@
   </si>
   <si>
     <t>由于现在的用例规约基本可以完成，所以写文档这方面的工作安排一个同学，其他的同学先熟悉下开发中可能遇到的技术难点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没事做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没事做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计数据库用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没事做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20第4周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计数据库成绩表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +436,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,8 +458,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,16 +483,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -796,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -811,20 +838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -901,20 +928,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1011,12 +1038,12 @@
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1105,18 +1132,18 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1142,7 +1169,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1156,7 +1183,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1168,7 +1195,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1180,7 +1207,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1192,7 +1219,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1204,7 +1231,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1221,12 +1248,12 @@
       <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -1252,7 +1279,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1266,7 +1293,7 @@
       <c r="C42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1278,7 +1305,7 @@
       <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1290,7 +1317,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="16"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1302,7 +1329,7 @@
       <c r="C45" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1314,7 +1341,7 @@
       <c r="C46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1323,12 +1350,12 @@
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1352,7 +1379,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1364,7 +1391,7 @@
         <v>67</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1374,7 +1401,7 @@
         <v>68</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1384,7 +1411,7 @@
         <v>71</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1394,7 +1421,7 @@
         <v>70</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1404,10 +1431,100 @@
         <v>68</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="D41:D46"/>
@@ -1415,13 +1532,6 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习javascript中的正则表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改查看错题本模块的用例规约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,11 +324,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂时没事做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时没事做</t>
+    <t>日期：2017.9.20第4周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计数据库成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,15 +344,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂时没事做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.20第4周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计数据库成绩表</t>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天没来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计数据库表(主题表，题目)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解javascript中的正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解javascript中的正则表达式的邮箱认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看spring spring MVC Mybatis的环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,19 +487,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,7 +502,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -823,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -846,12 +874,12 @@
       <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -928,20 +956,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1030,12 +1058,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -1169,7 +1197,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1183,7 +1211,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1195,7 +1223,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1207,7 +1235,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1219,7 +1247,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1231,7 +1259,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1240,12 +1268,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -1279,7 +1307,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1293,7 +1321,7 @@
       <c r="C42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1305,7 +1333,7 @@
       <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1317,7 +1345,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1329,7 +1357,7 @@
       <c r="C45" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1341,7 +1369,7 @@
       <c r="C46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1351,7 +1379,7 @@
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1378,9 +1406,11 @@
       <c r="B50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="9" t="s">
-        <v>73</v>
+      <c r="C50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1390,8 +1420,10 @@
       <c r="B51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1400,28 +1432,34 @@
       <c r="B52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1431,11 +1469,11 @@
         <v>68</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1460,63 +1498,82 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="17"/>
+        <v>83</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C63" s="8"/>
-      <c r="D63" s="17"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A19:D19"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.20第4周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设计数据库成绩表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,15 +364,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>还在继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20第4周 周三下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20第4周 周三上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看weex的环境搭建教程视频，并做个hello的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习maven项目管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并熟悉IntelliJ IDEA的工作环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>看spring spring MVC Mybatis的环境搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还在继续学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
+    <t>学习springboot的环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理之前的做的文档，检查有没有哪些方面是漏掉的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +488,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -489,6 +513,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,9 +529,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -851,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -866,20 +893,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -956,20 +983,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1058,20 +1085,20 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1160,18 +1187,18 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1268,20 +1295,20 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -1378,12 +1405,12 @@
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1407,7 +1434,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>72</v>
@@ -1421,7 +1448,7 @@
         <v>67</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" s="15"/>
     </row>
@@ -1433,7 +1460,7 @@
         <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="15"/>
     </row>
@@ -1445,7 +1472,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="15"/>
     </row>
@@ -1454,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D54" s="15"/>
     </row>
@@ -1472,12 +1499,12 @@
       <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -1498,10 +1525,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -1510,10 +1537,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -1521,11 +1548,11 @@
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -1534,10 +1561,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -1546,10 +1573,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -1558,21 +1585,113 @@
         <v>29</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="A65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A27:D27"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,27 +380,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学习maven项目管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并熟悉IntelliJ IDEA的工作环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看spring spring MVC Mybatis的环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习springboot的环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理之前的做的文档，检查有没有哪些方面是漏掉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25第5周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出进入考试模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出成绩管理模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>看weex的环境搭建教程视频，并做个hello的demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习maven项目管理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并熟悉IntelliJ IDEA的工作环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看spring spring MVC Mybatis的环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习springboot的环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理之前的做的文档，检查有没有哪些方面是漏掉的</t>
+    <t>搭建ionic框架的环境，尝试创建项目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 根据用例规约找出管理个人中心模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出管理错题本模块的实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,11 +537,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,9 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -878,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -901,12 +925,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -983,20 +1007,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1085,12 +1109,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1224,7 +1248,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1238,7 +1262,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1250,7 +1274,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1262,7 +1286,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1274,7 +1298,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1286,7 +1310,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1295,12 +1319,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1334,7 +1358,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1348,7 +1372,7 @@
       <c r="C42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1360,7 +1384,7 @@
       <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1372,7 +1396,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1384,7 +1408,7 @@
       <c r="C45" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1396,7 +1420,7 @@
       <c r="C46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1436,7 +1460,7 @@
       <c r="C50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1450,7 +1474,7 @@
       <c r="C51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1462,7 +1486,7 @@
       <c r="C52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1474,7 +1498,7 @@
       <c r="C53" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1486,7 +1510,7 @@
       <c r="C54" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1496,7 +1520,7 @@
         <v>68</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1549,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>84</v>
@@ -1591,12 +1615,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1625,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
@@ -1634,8 +1658,8 @@
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>87</v>
+      <c r="B70" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="9"/>
@@ -1645,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="9"/>
@@ -1655,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="9"/>
@@ -1665,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="9"/>
@@ -1681,26 +1705,118 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A27:D27"/>
+  <mergeCells count="20">
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="D41:D46"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>未完成(确定数据库表，还没设计字段)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -425,6 +421,34 @@
   </si>
   <si>
     <t>根据用例规约找出管理错题本模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点难，未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点棘手，未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1359,7 +1383,7 @@
         <v>58</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1367,10 +1391,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="18"/>
     </row>
@@ -1382,7 +1406,7 @@
         <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="18"/>
     </row>
@@ -1391,7 +1415,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>55</v>
@@ -1400,13 +1424,13 @@
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D45" s="18"/>
     </row>
@@ -1415,10 +1439,10 @@
         <v>29</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D46" s="18"/>
     </row>
@@ -1430,7 +1454,7 @@
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1455,13 +1479,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1469,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="16"/>
     </row>
@@ -1481,10 +1505,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="16"/>
     </row>
@@ -1493,10 +1517,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="16"/>
     </row>
@@ -1505,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="16"/>
     </row>
@@ -1517,14 +1541,14 @@
         <v>29</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1549,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -1561,10 +1585,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -1573,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -1585,10 +1609,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -1597,10 +1621,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -1609,14 +1633,14 @@
         <v>29</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -1624,7 +1648,7 @@
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1649,9 +1673,11 @@
         <v>5</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1659,9 +1685,11 @@
         <v>6</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1669,9 +1697,11 @@
         <v>7</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1679,9 +1709,11 @@
         <v>9</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1689,9 +1721,11 @@
         <v>8</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1699,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -1714,7 +1748,7 @@
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1739,9 +1773,11 @@
         <v>5</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1749,9 +1785,11 @@
         <v>6</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1759,9 +1797,11 @@
         <v>7</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1769,9 +1809,11 @@
         <v>9</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1779,9 +1821,11 @@
         <v>8</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1789,7 +1833,7 @@
         <v>29</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
@@ -1804,6 +1848,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A19:D19"/>
@@ -1820,10 +1868,6 @@
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="110">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,43 +412,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 根据用例规约找出管理个人中心模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点难，未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点棘手，未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>搭建ionic框架的环境，尝试创建项目。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 根据用例规约找出管理个人中心模块的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据用例规约找出管理错题本模块的实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点难，未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还在学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点棘手，未完成</t>
+    <t>分析成绩管理模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析管理个人中心模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析管理错题本模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析进入考试模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26第5周 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,6 +588,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -583,9 +606,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -949,12 +969,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1031,20 +1051,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1133,12 +1153,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1272,7 +1292,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1286,7 +1306,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1298,7 +1318,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1310,7 +1330,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1322,7 +1342,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1334,7 +1354,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1343,12 +1363,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1382,7 +1402,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1396,7 +1416,7 @@
       <c r="C42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1408,7 +1428,7 @@
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1420,7 +1440,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1432,7 +1452,7 @@
       <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1442,9 +1462,9 @@
         <v>64</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1484,7 +1504,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1498,7 +1518,7 @@
       <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1510,7 +1530,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1522,7 +1542,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1534,7 +1554,7 @@
       <c r="C54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1544,7 +1564,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1639,12 +1659,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1676,7 +1696,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D69" s="9"/>
     </row>
@@ -1688,7 +1708,7 @@
         <v>94</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -1700,7 +1720,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -1712,7 +1732,7 @@
         <v>86</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D72" s="9"/>
     </row>
@@ -1724,7 +1744,7 @@
         <v>89</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -1739,12 +1759,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1776,7 +1796,7 @@
         <v>93</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D80" s="9"/>
     </row>
@@ -1785,10 +1805,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -1797,10 +1817,10 @@
         <v>7</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -1809,10 +1829,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -1824,7 +1844,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -1839,20 +1859,88 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A78:D78"/>
+  <mergeCells count="21">
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
@@ -1868,6 +1956,11 @@
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A78:D78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,35 +440,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>搭建ionic框架的环境，尝试创建项目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出管理错题本模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析成绩管理模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析管理个人中心模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析管理错题本模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析进入考试模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26第5周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有点棘手，未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搭建ionic框架的环境，尝试创建项目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用例规约找出管理错题本模块的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析成绩管理模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析管理个人中心模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析管理错题本模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析进入考试模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.26第5周 周二</t>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,9 +600,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,6 +615,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -949,7 +961,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:D88"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -969,12 +981,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1051,20 +1063,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1153,12 +1165,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1292,7 +1304,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1306,7 +1318,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1318,7 +1330,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1330,7 +1342,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1342,7 +1354,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1354,7 +1366,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1363,12 +1375,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1402,7 +1414,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1416,7 +1428,7 @@
       <c r="C42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1428,7 +1440,7 @@
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1440,7 +1452,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1452,7 +1464,7 @@
       <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1464,7 +1476,7 @@
       <c r="C46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1504,7 +1516,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1518,7 +1530,7 @@
       <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1530,7 +1542,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1542,7 +1554,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1554,7 +1566,7 @@
       <c r="C54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1564,7 +1576,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1659,12 +1671,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1759,12 +1771,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1796,7 +1808,7 @@
         <v>93</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D80" s="9"/>
     </row>
@@ -1805,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -1829,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>99</v>
@@ -1859,16 +1871,16 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1893,9 +1905,11 @@
         <v>5</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1903,9 +1917,11 @@
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1913,9 +1929,11 @@
         <v>7</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D92" s="9"/>
     </row>
     <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1923,9 +1941,11 @@
         <v>9</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1933,13 +1953,20 @@
         <v>8</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D94" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A19:D19"/>
@@ -1956,11 +1983,6 @@
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A78:D78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="119">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,131 +356,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>还在继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20第4周 周三下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20第4周 周三上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习maven项目管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并熟悉IntelliJ IDEA的工作环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看spring spring MVC Mybatis的环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习springboot的环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理之前的做的文档，检查有没有哪些方面是漏掉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25第5周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出进入考试模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出成绩管理模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看weex的环境搭建教程视频，并做个hello的demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 根据用例规约找出管理个人中心模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点难，未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建ionic框架的环境，尝试创建项目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约找出管理错题本模块的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析成绩管理模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析管理个人中心模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析管理错题本模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析进入考试模块的实体，合并重复的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点棘手，未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26第5周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>了解javascript中的正则表达式的邮箱认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还在继续学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.20第4周 周三下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.20第4周 周三上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习maven项目管理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并熟悉IntelliJ IDEA的工作环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看spring spring MVC Mybatis的环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习springboot的环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理之前的做的文档，检查有没有哪些方面是漏掉的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.25第5周 周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用例规约找出进入考试模块的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用例规约找出成绩管理模块的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看weex的环境搭建教程视频，并做个hello的demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 根据用例规约找出管理个人中心模块的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点难，未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还在学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建ionic框架的环境，尝试创建项目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用例规约找出管理错题本模块的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析成绩管理模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析管理个人中心模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析管理错题本模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析进入考试模块的实体，合并重复的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.26第5周 周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点棘手，未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>查看前几天学的数据库有没有错。并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉小马的项目框架的搭建流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看前几天学的数据库有没有错，并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉小马的项目框架的springboot的原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本机搭建小马给的框架。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27第5周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1474,7 +1498,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="18"/>
     </row>
@@ -1528,7 +1552,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="16"/>
     </row>
@@ -1564,7 +1588,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="16"/>
     </row>
@@ -1580,7 +1604,7 @@
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1629,10 +1653,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -1653,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>74</v>
@@ -1680,7 +1704,7 @@
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1705,10 +1729,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D69" s="9"/>
     </row>
@@ -1717,10 +1741,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -1729,10 +1753,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -1741,10 +1765,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D72" s="9"/>
     </row>
@@ -1753,10 +1777,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -1780,7 +1804,7 @@
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1805,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
@@ -1817,10 +1841,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -1829,10 +1853,10 @@
         <v>7</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -1841,10 +1865,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -1853,10 +1877,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -1880,7 +1904,7 @@
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1905,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D90" s="9"/>
     </row>
@@ -1917,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D91" s="9"/>
     </row>
@@ -1929,10 +1953,10 @@
         <v>7</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D92" s="9"/>
     </row>
@@ -1941,10 +1965,10 @@
         <v>9</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D93" s="9"/>
     </row>
@@ -1953,20 +1977,94 @@
         <v>8</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="D94" s="9"/>
     </row>
+    <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="D41:D46"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A96:D96"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A19:D19"/>
@@ -1982,7 +2080,6 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="D41:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,15 +484,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看前几天学的数据库有没有错。并修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟悉小马的项目框架的搭建流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看前几天学的数据库有没有错，并修改</t>
+    <t>在本机搭建小马给的框架。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,11 +496,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在本机搭建小马给的框架。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.27第5周 周三</t>
+    <t>熟悉小马的项目框架的搭建流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看前几天写的数据库有没有错。并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看前几天写的数据库有没有错，并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27第5周 周三上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27第5周 周三下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过第一次审查数据库文档，发现少了后台的表，下午继续完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thymeleaf 简单操作。(可先参考框架自带的页面是如何输出变量的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看前几天写的数据库有没有错，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看前几天写的数据库有没有错。并复习jquery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,6 +652,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,9 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -982,15 +1010,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="39.625" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
@@ -1005,12 +1033,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1087,20 +1115,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1189,12 +1217,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1399,12 +1427,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1540,7 +1568,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1554,7 +1582,7 @@
       <c r="C51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1566,7 +1594,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1578,7 +1606,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1590,7 +1618,7 @@
       <c r="C54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1600,7 +1628,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1695,12 +1723,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1795,12 +1823,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1895,12 +1923,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -1984,9 +2012,18 @@
       </c>
       <c r="D94" s="9"/>
     </row>
+    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="8"/>
+    </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -2011,39 +2048,49 @@
         <v>5</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2051,28 +2098,111 @@
         <v>8</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D102" s="9"/>
     </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="114" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
@@ -2080,6 +2210,17 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="133">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,34 @@
   </si>
   <si>
     <t>查看前几天写的数据库有没有错。并复习jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16第8周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写主题管理模块web接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写用户管理模块web接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写错题本管理模块web接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写题目管理模块web接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写成绩管理模块web接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写注册登录模块web接口文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,11 +679,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1010,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1033,12 +1061,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1115,20 +1143,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1217,12 +1245,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1356,7 +1384,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1370,7 +1398,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1382,7 +1410,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1394,7 +1422,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1406,7 +1434,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1418,7 +1446,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1427,12 +1455,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1466,7 +1494,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1480,7 +1508,7 @@
       <c r="C42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1492,7 +1520,7 @@
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1504,7 +1532,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1516,7 +1544,7 @@
       <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1528,7 +1556,7 @@
       <c r="C46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1568,7 +1596,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1582,7 +1610,7 @@
       <c r="C51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1594,7 +1622,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1606,7 +1634,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1618,7 +1646,7 @@
       <c r="C54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1628,7 +1656,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1723,12 +1751,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1823,12 +1851,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1923,12 +1951,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2065,7 +2093,7 @@
       <c r="C99" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2079,7 +2107,7 @@
       <c r="C100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2186,7 +2214,7 @@
       <c r="C112" s="7"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="114" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>29</v>
       </c>
@@ -2195,8 +2223,104 @@
       </c>
       <c r="C114" s="8"/>
     </row>
+    <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
     <mergeCell ref="A48:D48"/>
@@ -2207,20 +2331,6 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,19 @@
   </si>
   <si>
     <t>写注册登录模块web接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,17 +692,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,6 +706,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1041,7 +1054,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1061,12 +1074,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1143,20 +1156,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1245,12 +1258,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1384,7 +1397,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1398,7 +1411,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1410,7 +1423,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1422,7 +1435,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1434,7 +1447,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1446,7 +1459,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1455,12 +1468,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1494,7 +1507,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1508,7 +1521,7 @@
       <c r="C42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1520,7 +1533,7 @@
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1532,7 +1545,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1544,7 +1557,7 @@
       <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1556,7 +1569,7 @@
       <c r="C46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1596,7 +1609,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1610,7 +1623,7 @@
       <c r="C51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1622,7 +1635,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1634,7 +1647,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1646,7 +1659,7 @@
       <c r="C54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1656,7 +1669,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1751,12 +1764,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1851,12 +1864,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1951,12 +1964,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2093,7 +2106,7 @@
       <c r="C99" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2107,7 +2120,7 @@
       <c r="C100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="15"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2252,7 +2265,9 @@
       <c r="B118" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D118" s="9"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2262,7 +2277,9 @@
       <c r="B119" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C119" s="1"/>
+      <c r="C119" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D119" s="9"/>
     </row>
     <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2272,7 +2289,9 @@
       <c r="B120" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="1"/>
+      <c r="C120" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D120" s="9"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2282,7 +2301,9 @@
       <c r="B121" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C121" s="7"/>
+      <c r="C121" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D121" s="9"/>
     </row>
     <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2292,7 +2313,9 @@
       <c r="B122" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D122" s="9"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2302,25 +2325,22 @@
       <c r="B124" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="8"/>
+      <c r="C124" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
     <mergeCell ref="A48:D48"/>
@@ -2331,6 +2351,11 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="143">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,34 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16第8周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主题管理模块web接口文档和数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写成绩管理模块web接口文档和数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写题目管理模块web接口文档和数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写错题本管理模块web接口文和档数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写用户管理模块web接口文档和数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,12 +721,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -706,6 +728,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1051,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1074,12 +1102,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1156,20 +1184,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1258,12 +1286,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1468,12 +1496,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1609,7 +1637,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1623,7 +1651,7 @@
       <c r="C51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1635,7 +1663,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1647,7 +1675,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1659,7 +1687,7 @@
       <c r="C54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1669,7 +1697,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1764,12 +1792,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1864,12 +1892,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1964,12 +1992,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2106,7 +2134,7 @@
       <c r="C99" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2120,7 +2148,7 @@
       <c r="C100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2329,13 +2357,95 @@
         <v>135</v>
       </c>
     </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="26">
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
@@ -2351,11 +2461,11 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="143">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,18 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1102,12 +1102,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1184,20 +1184,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1286,12 +1286,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1425,7 +1425,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1451,7 +1451,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1463,7 +1463,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1475,7 +1475,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1487,7 +1487,7 @@
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1496,12 +1496,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1535,7 +1535,7 @@
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="C42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1561,7 +1561,7 @@
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1573,7 +1573,7 @@
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1585,7 +1585,7 @@
       <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1597,7 +1597,7 @@
       <c r="C46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1637,7 +1637,7 @@
       <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="C51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1663,7 +1663,7 @@
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1675,7 +1675,7 @@
       <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1687,7 +1687,7 @@
       <c r="C54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1697,7 +1697,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1792,12 +1792,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1892,12 +1892,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -1992,12 +1992,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2134,7 +2134,7 @@
       <c r="C99" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       <c r="C100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="16"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2386,7 +2386,9 @@
       <c r="B129" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D129" s="9"/>
     </row>
     <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2396,7 +2398,9 @@
       <c r="B130" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D130" s="9"/>
     </row>
     <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2406,7 +2410,9 @@
       <c r="B131" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D131" s="9"/>
     </row>
     <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2416,7 +2422,9 @@
       <c r="B132" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C132" s="7"/>
+      <c r="C132" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D132" s="9"/>
     </row>
     <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2426,7 +2434,9 @@
       <c r="B133" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D133" s="9"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2440,16 +2450,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
@@ -2461,11 +2466,16 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>修改题目管理用例规约包括文字描写和界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改成绩管理用例规约包括文字描写和界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,6 +598,38 @@
   </si>
   <si>
     <t>没来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23第9周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成绩管理用例规约包括文字描写和界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写进入考试模块界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的主题管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的题目管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写首页的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的成绩管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写登陆与注册页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +749,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -733,13 +767,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1079,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1102,12 +1130,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1184,20 +1212,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1286,12 +1314,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1320,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1344,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -1368,22 +1396,22 @@
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1395,7 +1423,7 @@
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1420,13 +1448,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>44</v>
+      <c r="D30" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1434,60 +1462,60 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1496,16 +1524,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1527,16 +1555,16 @@
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>65</v>
+      <c r="D41" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1544,60 +1572,60 @@
         <v>6</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1607,7 +1635,7 @@
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1632,13 +1660,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1646,62 +1674,62 @@
         <v>6</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1726,10 +1754,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -1738,10 +1766,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -1750,10 +1778,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -1762,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -1774,10 +1802,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -1786,22 +1814,22 @@
         <v>29</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="A65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1826,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69" s="9"/>
     </row>
@@ -1838,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -1850,10 +1878,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -1862,10 +1890,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" s="9"/>
     </row>
@@ -1874,10 +1902,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -1886,22 +1914,22 @@
         <v>29</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1926,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
@@ -1938,10 +1966,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -1950,10 +1978,10 @@
         <v>7</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -1962,10 +1990,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -1974,10 +2002,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -1986,22 +2014,22 @@
         <v>29</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -2026,10 +2054,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D90" s="9"/>
     </row>
@@ -2038,10 +2066,10 @@
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="9"/>
     </row>
@@ -2050,10 +2078,10 @@
         <v>7</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" s="9"/>
     </row>
@@ -2062,10 +2090,10 @@
         <v>9</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="9"/>
     </row>
@@ -2074,10 +2102,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D94" s="9"/>
     </row>
@@ -2086,13 +2114,13 @@
         <v>29</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="8"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -2117,10 +2145,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -2129,13 +2157,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2143,22 +2171,22 @@
         <v>7</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D101" s="9"/>
     </row>
@@ -2167,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D102" s="9"/>
     </row>
@@ -2179,13 +2207,13 @@
         <v>29</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -2210,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="9"/>
@@ -2220,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="9"/>
@@ -2230,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="9"/>
@@ -2240,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="9"/>
@@ -2250,7 +2278,7 @@
         <v>8</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="9"/>
@@ -2260,13 +2288,13 @@
         <v>29</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" s="8"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -2291,10 +2319,10 @@
         <v>5</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="9"/>
     </row>
@@ -2303,10 +2331,10 @@
         <v>6</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D119" s="9"/>
     </row>
@@ -2315,10 +2343,10 @@
         <v>7</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D120" s="9"/>
     </row>
@@ -2327,10 +2355,10 @@
         <v>9</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D121" s="9"/>
     </row>
@@ -2339,10 +2367,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" s="9"/>
     </row>
@@ -2351,15 +2379,15 @@
         <v>29</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -2384,10 +2412,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D129" s="9"/>
     </row>
@@ -2396,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D130" s="9"/>
     </row>
@@ -2408,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D131" s="9"/>
     </row>
@@ -2420,10 +2448,10 @@
         <v>9</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D132" s="9"/>
     </row>
@@ -2432,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D133" s="9"/>
     </row>
@@ -2444,17 +2472,104 @@
         <v>29</v>
       </c>
       <c r="B135" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="8"/>
+    </row>
+    <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="8"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="9"/>
+    </row>
+    <row r="146" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="27">
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
@@ -2466,16 +2581,11 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="151">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,10 @@
   </si>
   <si>
     <t>编写登陆与注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,13 +753,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -767,7 +765,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1109,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1130,12 +1134,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1212,20 +1216,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1314,12 +1318,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1453,7 +1457,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1467,7 +1471,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1479,7 +1483,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1491,7 +1495,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1503,7 +1507,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1515,7 +1519,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1524,12 +1528,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1563,7 +1567,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1577,7 +1581,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1589,7 +1593,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1601,7 +1605,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1613,7 +1617,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1625,7 +1629,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1665,7 +1669,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1679,7 +1683,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1691,7 +1695,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1703,7 +1707,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1715,7 +1719,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1725,7 +1729,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1820,12 +1824,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1920,12 +1924,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2020,12 +2024,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2162,7 +2166,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2176,7 +2180,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2505,7 +2509,9 @@
       <c r="B140" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D140" s="9"/>
     </row>
     <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2515,7 +2521,9 @@
       <c r="B141" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2525,7 +2533,9 @@
       <c r="B142" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D142" s="9"/>
     </row>
     <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2535,7 +2545,9 @@
       <c r="B143" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D143" s="9"/>
     </row>
     <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2545,8 +2557,13 @@
       <c r="B144" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -2555,21 +2572,17 @@
       <c r="B146" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="8"/>
+      <c r="C146" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
@@ -2581,11 +2594,17 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="154">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t>编写后台管理模块的成绩管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写登陆与注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第9周 周2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,7 +765,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -765,13 +783,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1111,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1134,12 +1146,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1216,20 +1228,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1318,12 +1330,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1457,7 +1469,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1471,7 +1483,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1483,7 +1495,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1495,7 +1507,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1507,7 +1519,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1519,7 +1531,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1528,12 +1540,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1567,7 +1579,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1581,7 +1593,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1593,7 +1605,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1605,7 +1617,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1617,7 +1629,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1629,7 +1641,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1669,7 +1681,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1683,7 +1695,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1695,7 +1707,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1707,7 +1719,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1719,7 +1731,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1729,7 +1741,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1824,12 +1836,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1924,12 +1936,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2024,12 +2036,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2166,7 +2178,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="18" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2180,7 +2192,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2562,10 +2574,10 @@
       </c>
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>29</v>
       </c>
@@ -2573,16 +2585,107 @@
         <v>149</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="28">
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
@@ -2594,17 +2697,11 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="165">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,50 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成界面编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成界面编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的添加主题页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写显示的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的添加题目页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第9周 周3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,13 +809,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -783,7 +821,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1123,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1146,12 +1190,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1228,20 +1272,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1330,12 +1374,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1469,7 +1513,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1483,7 +1527,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1495,7 +1539,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1507,7 +1551,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1519,7 +1563,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1531,7 +1575,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1540,12 +1584,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1579,7 +1623,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1593,7 +1637,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1605,7 +1649,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1617,7 +1661,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1629,7 +1673,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1641,7 +1685,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1681,7 +1725,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1695,7 +1739,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1707,7 +1751,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1719,7 +1763,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1731,7 +1775,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1741,7 +1785,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1836,12 +1880,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1936,12 +1980,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2036,12 +2080,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2178,7 +2222,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2192,7 +2236,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2617,7 +2661,9 @@
       <c r="B150" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D150" s="9"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2627,7 +2673,9 @@
       <c r="B151" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D151" s="9"/>
     </row>
     <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2637,7 +2685,9 @@
       <c r="B152" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2647,7 +2697,9 @@
       <c r="B153" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D153" s="9"/>
     </row>
     <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2657,7 +2709,9 @@
       <c r="B154" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2670,22 +2724,102 @@
       <c r="B156" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
+  <mergeCells count="29">
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="D41:D46"/>
@@ -2697,11 +2831,18 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -677,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写显示的界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编写后台管理模块的添加题目页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +686,10 @@
   </si>
   <si>
     <t>日期：2017.10.24第9周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写个人中心显示的界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +809,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -821,13 +827,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1190,12 +1190,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1272,20 +1272,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1374,12 +1374,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1513,7 +1513,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1539,7 +1539,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1551,7 +1551,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1563,7 +1563,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1575,7 +1575,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1584,12 +1584,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1623,7 +1623,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1649,7 +1649,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1661,7 +1661,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1673,7 +1673,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1685,7 +1685,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1725,7 +1725,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1751,7 +1751,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1763,7 +1763,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1775,7 +1775,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1785,7 +1785,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1880,12 +1880,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1980,12 +1980,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2080,12 +2080,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2222,7 +2222,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="18" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2730,7 +2730,7 @@
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -2765,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="9"/>
@@ -2785,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="9"/>
@@ -2808,12 +2808,25 @@
         <v>29</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2830,19 +2843,6 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,10 @@
   </si>
   <si>
     <t>编写个人中心显示的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,6 +813,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,17 +827,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,7 +1174,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1190,12 +1194,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1272,20 +1276,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1374,12 +1378,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1513,7 +1517,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1527,7 +1531,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1539,7 +1543,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1551,7 +1555,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1563,7 +1567,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1575,7 +1579,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1584,12 +1588,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1623,7 +1627,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1637,7 +1641,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1649,7 +1653,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1661,7 +1665,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1673,7 +1677,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1685,7 +1689,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1725,7 +1729,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1739,7 +1743,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1751,7 +1755,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1763,7 +1767,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1775,7 +1779,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1785,7 +1789,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1880,12 +1884,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1980,12 +1984,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2080,12 +2084,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2222,7 +2226,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2236,7 +2240,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2757,7 +2761,9 @@
       <c r="B160" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D160" s="9"/>
     </row>
     <row r="161" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2767,7 +2773,9 @@
       <c r="B161" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D161" s="9"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2777,7 +2785,9 @@
       <c r="B162" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D162" s="9"/>
     </row>
     <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2787,7 +2797,9 @@
       <c r="B163" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D163" s="9"/>
     </row>
     <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2797,7 +2809,9 @@
       <c r="B164" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D164" s="9"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2814,19 +2828,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2843,6 +2844,19 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,26 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第10周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写底部选项卡切换的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端显示错题本界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端登陆验证的逻辑处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,12 +833,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -827,11 +841,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1171,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1194,12 +1214,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1276,20 +1296,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1378,12 +1398,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1517,7 +1537,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1531,7 +1551,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1543,7 +1563,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1555,7 +1575,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1567,7 +1587,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1579,7 +1599,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1588,12 +1608,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1627,7 +1647,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1641,7 +1661,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1653,7 +1673,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1665,7 +1685,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1677,7 +1697,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1689,7 +1709,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1729,7 +1749,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1743,7 +1763,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1755,7 +1775,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1767,7 +1787,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1779,7 +1799,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1789,7 +1809,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1884,12 +1904,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -1984,12 +2004,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2084,12 +2104,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2226,7 +2246,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="18" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2240,7 +2260,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2826,8 +2846,106 @@
       </c>
       <c r="C166" s="2"/>
     </row>
+    <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C176" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A158:D158"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2844,19 +2962,6 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="178">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,63 +657,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已完成界面编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成界面编写</t>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的添加主题页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台管理模块的添加题目页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第9周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写个人中心显示的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第10周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写底部选项卡切换的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端显示错题本界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端登陆验证的逻辑处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写后台管理模块的添加主题页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写后台管理模块的添加题目页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还没到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.10.24第9周 周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写个人中心显示的界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.10.24第10周 周1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写底部选项卡切换的逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写前端显示错题本界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网上寻找测试数据插入数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写前端登陆验证的逻辑处理</t>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第10周 周2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找这个功能的demo,实现有点困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途出现bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,6 +860,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -841,17 +874,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1191,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:D176"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1214,12 +1241,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1296,20 +1323,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1398,12 +1425,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1537,7 +1564,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1551,7 +1578,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1563,7 +1590,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1575,7 +1602,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1587,7 +1614,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1599,7 +1626,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1608,12 +1635,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1647,7 +1674,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1661,7 +1688,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1673,7 +1700,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1685,7 +1712,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1697,7 +1724,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1709,7 +1736,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1749,7 +1776,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1763,7 +1790,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1775,7 +1802,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1787,7 +1814,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1799,7 +1826,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1809,7 +1836,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1904,12 +1931,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2004,12 +2031,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2104,12 +2131,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2246,7 +2273,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2260,7 +2287,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2710,7 +2737,7 @@
         <v>144</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D152" s="9"/>
     </row>
@@ -2722,7 +2749,7 @@
         <v>146</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D153" s="9"/>
     </row>
@@ -2734,7 +2761,7 @@
         <v>148</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D154" s="9"/>
     </row>
@@ -2749,12 +2776,12 @@
         <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -2779,10 +2806,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D160" s="9"/>
     </row>
@@ -2791,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="B161" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D161" s="9"/>
     </row>
@@ -2806,7 +2833,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D162" s="9"/>
     </row>
@@ -2815,10 +2842,10 @@
         <v>9</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D163" s="9"/>
     </row>
@@ -2830,25 +2857,22 @@
         <v>148</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C166" s="2"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -2873,29 +2897,39 @@
         <v>5</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D170" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C172" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D172" s="9"/>
     </row>
     <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2903,35 +2937,137 @@
         <v>9</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B174" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+    </row>
+    <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="9"/>
-    </row>
-    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="C180" s="2"/>
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C176" s="2"/>
+      <c r="B185" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C185" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A168:D168"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
@@ -2947,21 +3083,6 @@
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,6 +741,18 @@
   </si>
   <si>
     <t>中途出现bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +871,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -874,11 +889,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:D178"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1241,12 +1253,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1323,20 +1335,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1425,12 +1437,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1564,7 +1576,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1578,7 +1590,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1590,7 +1602,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1602,7 +1614,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1614,7 +1626,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1626,7 +1638,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1635,12 +1647,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1674,7 +1686,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1688,7 +1700,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1700,7 +1712,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1712,7 +1724,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1724,7 +1736,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1736,7 +1748,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1776,7 +1788,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1790,7 +1802,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1802,7 +1814,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1814,7 +1826,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1826,7 +1838,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1836,7 +1848,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1931,12 +1943,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2031,12 +2043,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2131,12 +2143,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2273,7 +2285,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="18" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2287,7 +2299,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2900,7 +2912,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>177</v>
@@ -2998,7 +3010,9 @@
       <c r="B180" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D180" s="9"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3008,7 +3022,9 @@
       <c r="B181" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D181" s="9"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3018,7 +3034,9 @@
       <c r="B182" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D182" s="9"/>
     </row>
     <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3028,7 +3046,9 @@
       <c r="B183" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D183" s="9"/>
     </row>
     <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3038,7 +3058,9 @@
       <c r="B184" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D184" s="9"/>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3052,6 +3074,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
@@ -3063,26 +3100,11 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A168:D168"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A158:D158"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="183">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,11 +748,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>日期：2017.10.24第10周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Spring datajap多表联系的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写题目详情页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,11 +879,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -889,8 +894,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1230,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1253,12 +1261,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1335,20 +1343,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1437,12 +1445,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1576,7 +1584,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1590,7 +1598,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1602,7 +1610,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1614,7 +1622,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1626,7 +1634,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1638,7 +1646,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1647,12 +1655,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1686,7 +1694,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1700,7 +1708,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1712,7 +1720,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1724,7 +1732,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1736,7 +1744,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1748,7 +1756,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1788,7 +1796,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1802,7 +1810,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1814,7 +1822,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1826,7 +1834,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1838,7 +1846,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1848,7 +1856,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1943,12 +1951,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2043,12 +2051,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2143,12 +2151,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2285,7 +2293,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2299,7 +2307,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3011,7 +3019,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D180" s="9"/>
     </row>
@@ -3023,7 +3031,7 @@
         <v>166</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="D181" s="9"/>
     </row>
@@ -3047,7 +3055,7 @@
         <v>168</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="D183" s="9"/>
     </row>
@@ -3059,7 +3067,7 @@
         <v>168</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="D184" s="9"/>
     </row>
@@ -3072,23 +3080,90 @@
       </c>
       <c r="C185" s="2"/>
     </row>
+    <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+    </row>
+    <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="9"/>
+    </row>
+    <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C194" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="32">
+    <mergeCell ref="A187:D187"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
@@ -3105,6 +3180,21 @@
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="185">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,6 +761,14 @@
   </si>
   <si>
     <t>编写题目详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上寻找测试数据插入数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,11 +887,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,12 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1241,7 +1249,7 @@
   <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1261,12 +1269,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1343,20 +1351,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1445,12 +1453,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1584,7 +1592,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1598,7 +1606,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1610,7 +1618,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1622,7 +1630,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1634,7 +1642,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1646,7 +1654,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1655,12 +1663,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1694,7 +1702,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1708,7 +1716,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1720,7 +1728,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1732,7 +1740,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1744,7 +1752,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1756,7 +1764,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1796,7 +1804,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1810,7 +1818,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1822,7 +1830,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1834,7 +1842,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1846,7 +1854,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1856,7 +1864,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1951,12 +1959,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2051,12 +2059,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2151,12 +2159,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2293,7 +2301,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2307,7 +2315,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3147,22 +3155,38 @@
         <v>8</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C194" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="A19:D19"/>
@@ -3179,22 +3203,6 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="194">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,42 @@
   </si>
   <si>
     <t>网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端登陆验证的逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写交卷的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写交卷成功显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善编写题目详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24第11周 周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,18 +923,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,6 +931,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1246,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1269,12 +1305,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1351,20 +1387,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1453,12 +1489,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1592,7 +1628,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1606,7 +1642,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1618,7 +1654,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1630,7 +1666,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1642,7 +1678,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1654,7 +1690,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1663,12 +1699,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1702,7 +1738,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1716,7 +1752,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1728,7 +1764,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1740,7 +1776,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1752,7 +1788,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1764,7 +1800,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1804,7 +1840,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1818,7 +1854,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1830,7 +1866,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1842,7 +1878,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1854,7 +1890,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1864,7 +1900,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1959,12 +1995,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2059,12 +2095,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2159,12 +2195,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2301,7 +2337,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2315,7 +2351,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="15"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3117,7 +3153,9 @@
       <c r="B189" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D189" s="9"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3127,7 +3165,9 @@
       <c r="B190" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D190" s="9"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3137,7 +3177,9 @@
       <c r="B191" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D191" s="9"/>
     </row>
     <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3147,7 +3189,9 @@
       <c r="B192" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D192" s="9"/>
     </row>
     <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3157,7 +3201,9 @@
       <c r="B193" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3167,26 +3213,94 @@
       <c r="B194" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+    </row>
+    <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="9"/>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="9"/>
+    </row>
+    <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="9"/>
+    </row>
+    <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C203" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
+  <mergeCells count="33">
+    <mergeCell ref="A196:D196"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="A19:D19"/>
@@ -3203,6 +3317,22 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A148:D148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="206">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,10 +681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.24第9周 周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编写个人中心显示的界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.24第10周 周1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编写底部选项卡切换的逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.24第10周 周2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>找这个功能的demo,实现有点困难</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,10 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.24第10周 周3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解Spring datajap多表联系的用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,11 +764,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编写交卷的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写交卷成功显示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善编写题目详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善网上寻找测试数据插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>编写前端登陆验证的逻辑处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写交卷的页面</t>
+    <t>编写个人信息接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端从后台获取个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善网上寻找测试数据插入数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -792,19 +812,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续完善编写题目详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完善网上寻找测试数据插入数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完善网上寻找测试数据插入数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.10.24第11周 周1</t>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端从后台获得题目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台传送题目信息前端的接口和修改密码的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据后台接口编写前端修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10周 周2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12周 周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,6 +971,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,18 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1282,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:D196"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1305,12 +1353,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1387,20 +1435,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1489,12 +1537,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1628,7 +1676,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1642,7 +1690,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1654,7 +1702,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1666,7 +1714,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1678,7 +1726,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1690,7 +1738,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1699,12 +1747,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1738,7 +1786,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1752,7 +1800,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1764,7 +1812,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1776,7 +1824,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1788,7 +1836,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1800,7 +1848,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1840,7 +1888,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1854,7 +1902,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1866,7 +1914,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1878,7 +1926,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1890,7 +1938,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1900,7 +1948,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -1995,12 +2043,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2095,12 +2143,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2195,12 +2243,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2337,7 +2385,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2351,7 +2399,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="16"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -2801,7 +2849,7 @@
         <v>144</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D152" s="9"/>
     </row>
@@ -2845,7 +2893,7 @@
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -2873,7 +2921,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D160" s="9"/>
     </row>
@@ -2882,10 +2930,10 @@
         <v>6</v>
       </c>
       <c r="B161" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D161" s="9"/>
     </row>
@@ -2897,7 +2945,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D162" s="9"/>
     </row>
@@ -2909,7 +2957,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D163" s="9"/>
     </row>
@@ -2921,7 +2969,7 @@
         <v>148</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D164" s="9"/>
     </row>
@@ -2936,7 +2984,7 @@
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -2961,13 +3009,13 @@
         <v>5</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2975,13 +3023,13 @@
         <v>6</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2989,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D172" s="9"/>
     </row>
@@ -3001,13 +3049,13 @@
         <v>9</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D173" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3015,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="B174" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D174" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3035,7 +3083,7 @@
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -3060,10 +3108,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D180" s="9"/>
     </row>
@@ -3072,7 +3120,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>13</v>
@@ -3084,10 +3132,10 @@
         <v>7</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D182" s="9"/>
     </row>
@@ -3096,7 +3144,7 @@
         <v>9</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>13</v>
@@ -3108,7 +3156,7 @@
         <v>8</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>72</v>
@@ -3126,7 +3174,7 @@
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -3151,10 +3199,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D189" s="9"/>
     </row>
@@ -3163,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D190" s="9"/>
     </row>
@@ -3175,10 +3223,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D191" s="9"/>
     </row>
@@ -3187,10 +3235,10 @@
         <v>9</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D192" s="9"/>
     </row>
@@ -3199,10 +3247,10 @@
         <v>8</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D193" s="9"/>
     </row>
@@ -3211,15 +3259,15 @@
         <v>29</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -3244,9 +3292,11 @@
         <v>5</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C198" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D198" s="9"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3254,9 +3304,11 @@
         <v>6</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C199" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D199" s="9"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3264,9 +3316,11 @@
         <v>7</v>
       </c>
       <c r="B200" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C200" s="2"/>
       <c r="D200" s="9"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3274,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="9"/>
@@ -3284,9 +3338,11 @@
         <v>8</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C202" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D202" s="9"/>
     </row>
     <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3294,12 +3350,207 @@
         <v>29</v>
       </c>
       <c r="B203" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+    </row>
+    <row r="206" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D207" s="9"/>
+    </row>
+    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C203" s="2"/>
+      <c r="C208" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D208" s="9"/>
+    </row>
+    <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D211" s="9"/>
+    </row>
+    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+    </row>
+    <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="9"/>
+    </row>
+    <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="9"/>
+    </row>
+    <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="9"/>
+    </row>
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="9"/>
+    </row>
+    <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C221" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A196:D196"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A178:D178"/>
@@ -3316,23 +3567,6 @@
     <mergeCell ref="A168:D168"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="D50:D55"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A148:D148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,6 +853,30 @@
   </si>
   <si>
     <t>第12周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12周 周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端题目按上一题下一题答案的保存的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端个人成长曲线的展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端错题本的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台错题本的接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,18 +995,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,6 +1003,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1330,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214:D214"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1353,12 +1377,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1435,20 +1459,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1537,12 +1561,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1676,7 +1700,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1690,7 +1714,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1702,7 +1726,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1714,7 +1738,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1726,7 +1750,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1738,7 +1762,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1747,12 +1771,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1786,7 +1810,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1800,7 +1824,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1812,7 +1836,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1824,7 +1848,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1836,7 +1860,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1848,7 +1872,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1888,7 +1912,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1902,7 +1926,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1914,7 +1938,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1926,7 +1950,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1938,7 +1962,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1948,7 +1972,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -2043,12 +2067,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2143,12 +2167,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2243,12 +2267,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2385,7 +2409,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2399,7 +2423,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="15"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3478,7 +3502,9 @@
       <c r="B216" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C216" s="2"/>
+      <c r="C216" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D216" s="9"/>
     </row>
     <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3488,7 +3514,9 @@
       <c r="B217" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C217" s="2"/>
+      <c r="C217" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D217" s="9"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3498,7 +3526,9 @@
       <c r="B218" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C218" s="2"/>
+      <c r="C218" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D218" s="9"/>
     </row>
     <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3508,7 +3538,9 @@
       <c r="B219" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C219" s="2"/>
+      <c r="C219" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="D219" s="9"/>
     </row>
     <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3518,7 +3550,9 @@
       <c r="B220" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C220" s="2"/>
+      <c r="C220" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D220" s="9"/>
     </row>
     <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3528,15 +3562,105 @@
       <c r="B221" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C221" s="2"/>
+      <c r="C221" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+    </row>
+    <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="9"/>
+    </row>
+    <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="9"/>
+    </row>
+    <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="9"/>
+    </row>
+    <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="9"/>
+    </row>
+    <row r="230" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="9"/>
+    </row>
+    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C231" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A127:D127"/>
+  <mergeCells count="36">
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A116:D116"/>
     <mergeCell ref="A106:D106"/>
     <mergeCell ref="A148:D148"/>
@@ -3551,22 +3675,16 @@
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A127:D127"/>
     <mergeCell ref="A196:D196"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="218">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,11 +872,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编写后台错题本的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端题目按上一题下一题答案的保存的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>编写前端错题本的显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写后台错题本的接口</t>
+    <t>没完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,15 +1020,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1015,6 +1030,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1356,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1377,12 +1401,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1459,20 +1483,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1561,12 +1585,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1700,7 +1724,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1714,7 +1738,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1726,7 +1750,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1738,7 +1762,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1750,7 +1774,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1762,7 +1786,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1771,12 +1795,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1810,7 +1834,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1824,7 +1848,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1836,7 +1860,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1848,7 +1872,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1860,7 +1884,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1872,7 +1896,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1912,7 +1936,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1926,7 +1950,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1938,7 +1962,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1950,7 +1974,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1962,7 +1986,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1972,7 +1996,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -2067,12 +2091,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2167,12 +2191,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2267,12 +2291,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2409,7 +2433,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2423,7 +2447,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="16"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3595,7 +3619,9 @@
       <c r="B226" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C226" s="2"/>
+      <c r="C226" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="D226" s="9"/>
     </row>
     <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3605,7 +3631,9 @@
       <c r="B227" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C227" s="2"/>
+      <c r="C227" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="D227" s="9"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3613,9 +3641,11 @@
         <v>7</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C228" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="D228" s="9"/>
     </row>
     <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3623,9 +3653,11 @@
         <v>9</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C229" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D229" s="9"/>
     </row>
     <row r="230" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3633,9 +3665,11 @@
         <v>8</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C230" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="D230" s="9"/>
     </row>
     <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3645,36 +3679,12 @@
       <c r="B231" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C231" s="2"/>
+      <c r="C231" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A205:D205"/>
@@ -3685,6 +3695,32 @@
     <mergeCell ref="A196:D196"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A148:D148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="224">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,6 +901,30 @@
   </si>
   <si>
     <t>没来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13周 周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台错题本的接口怎样接收对应错题的id和错误答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从后台接口获取数据展示前端个人成长曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台错题本的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端错题本的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题目的对错，并计算考试结束的分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,16 +1044,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,6 +1057,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1378,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236:C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1401,12 +1425,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1483,20 +1507,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1585,12 +1609,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1724,7 +1748,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1738,7 +1762,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1750,7 +1774,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1762,7 +1786,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1774,7 +1798,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1786,7 +1810,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1795,12 +1819,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1834,7 +1858,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1848,7 +1872,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1860,7 +1884,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1872,7 +1896,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1884,7 +1908,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1896,7 +1920,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1936,7 +1960,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1950,7 +1974,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="13"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1962,7 +1986,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="13"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1974,7 +1998,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="13"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1986,7 +2010,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="13"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1996,7 +2020,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -2091,12 +2115,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2191,12 +2215,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2291,12 +2315,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2433,7 +2457,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2447,7 +2471,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="13"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3683,8 +3707,110 @@
         <v>217</v>
       </c>
     </row>
+    <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="9"/>
+    </row>
+    <row r="237" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="9"/>
+    </row>
+    <row r="238" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="9"/>
+    </row>
+    <row r="239" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="9"/>
+    </row>
+    <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C241" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A205:D205"/>
@@ -3700,27 +3826,7 @@
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A148:D148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第五组（小马）/小组计划实施表.xlsx
+++ b/第五组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="231">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,31 +900,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编写后台错题本的接口怎样接收对应错题的id和错误答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从后台接口获取数据展示前端个人成长曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写后台错题本的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端错题本的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题目的对错，并计算考试结束的分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>没来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第13周 周1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写后台错题本的接口怎样接收对应错题的id和错误答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从后台接口获取数据展示前端个人成长曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写后台错题本的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写前端错题本的显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题目的对错，并计算考试结束的分数</t>
+    <t>没来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13周周1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13周周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善编写后台错题本的接口怎样接收对应错题的id和错误答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善从后台接口获取数据展示前端个人成长曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善编写前端错题本的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善编写后台错题本的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善判断题目的对错，并计算考试结束的分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1072,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,12 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1402,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236:C241"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1425,12 +1453,12 @@
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1507,20 +1535,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1609,12 +1637,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1748,7 +1776,7 @@
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1762,7 +1790,7 @@
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1774,7 +1802,7 @@
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1786,7 +1814,7 @@
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1798,7 +1826,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1810,7 +1838,7 @@
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1819,12 +1847,12 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1858,7 +1886,7 @@
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1872,7 +1900,7 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1884,7 +1912,7 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1896,7 +1924,7 @@
       <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1908,7 +1936,7 @@
       <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1920,7 +1948,7 @@
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1960,7 +1988,7 @@
       <c r="C50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1974,7 +2002,7 @@
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1986,7 +2014,7 @@
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1998,7 +2026,7 @@
       <c r="C53" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -2010,7 +2038,7 @@
       <c r="C54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -2020,7 +2048,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -2115,12 +2143,12 @@
       <c r="D63" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -2215,12 +2243,12 @@
       <c r="D74" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -2315,12 +2343,12 @@
       <c r="D85" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -2457,7 +2485,7 @@
       <c r="C99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2471,7 +2499,7 @@
       <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3644,7 +3672,7 @@
         <v>208</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="D226" s="9"/>
     </row>
@@ -3704,12 +3732,12 @@
         <v>186</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -3734,9 +3762,11 @@
         <v>5</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C236" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D236" s="9"/>
     </row>
     <row r="237" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3744,9 +3774,11 @@
         <v>6</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C237" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D237" s="9"/>
     </row>
     <row r="238" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3754,9 +3786,11 @@
         <v>7</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C238" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D238" s="9"/>
     </row>
     <row r="239" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3764,9 +3798,11 @@
         <v>9</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C239" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D239" s="9"/>
     </row>
     <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3774,43 +3810,108 @@
         <v>8</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C241" s="2"/>
+      <c r="C241" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+    </row>
+    <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="9"/>
+    </row>
+    <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" s="9"/>
+    </row>
+    <row r="247" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" s="9"/>
+    </row>
+    <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C250" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="38">
+    <mergeCell ref="A243:D243"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A205:D205"/>
@@ -3827,6 +3928,27 @@
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A148:D148"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
